--- a/biology/Microbiologie/Entamoeba_histolytica/Entamoeba_histolytica.xlsx
+++ b/biology/Microbiologie/Entamoeba_histolytica/Entamoeba_histolytica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Entamoeba histolytica est une espèce d'amibes pathogènes[1] — un parasite — qui infecte le gros intestin provoquant une infection amibienne, produisant l'amibiase, une maladie parasitaire qui sévit en Amérique latine.  
+Entamoeba histolytica est une espèce d'amibes pathogènes — un parasite — qui infecte le gros intestin provoquant une infection amibienne, produisant l'amibiase, une maladie parasitaire qui sévit en Amérique latine.  
 Elle est déterminante dans l'amibiase et la dysenterie amibienne chez l'être humain dans les milieux tropicaux. Elle vise la paroi de l'intestin principalement, en pratiquant la lyse des cellules. Elle a un cycle monoxène (un seul hôte).
 Annuellement 100 000 personnes, notamment des enfants et des nourrissons, en sont victimes. Il n'existe pas actuellement de vaccin.
 La généticienne Esther Orozco a découvert l'importance d'un complexe protéinique composé d'une enzyme détruisant les tissus et d'une protéine au fort pouvoir adhésif et qui joue le rôle clé pour faciliter le phagocytage de la cellule par le parasite.
-Entamoeba histolytica existe sous deux formes interchangeables : une forme mobile et une forme kystique de résistance. Il était couramment admis que la forme mobile végétative pouvait prendre deux aspects différents : une forme non-hématophage (forme minuta) inoffensive, petite, localisée exclusivement dans la lumière de l'intestin où elle se nourrit de débris cellulaires et une forme hématophage (forme histolytica), plus grande que la première, qui pénètre dans la paroi intestinale. En fait, on sait depuis 1993 que seule la forme histolytica correspond à Entamoeba histolytica, la forme minuta correspondant à Entamoeba dispar, découvert en 1925 par É. Brumpt est une espèce à part[2].
+Entamoeba histolytica existe sous deux formes interchangeables : une forme mobile et une forme kystique de résistance. Il était couramment admis que la forme mobile végétative pouvait prendre deux aspects différents : une forme non-hématophage (forme minuta) inoffensive, petite, localisée exclusivement dans la lumière de l'intestin où elle se nourrit de débris cellulaires et une forme hématophage (forme histolytica), plus grande que la première, qui pénètre dans la paroi intestinale. En fait, on sait depuis 1993 que seule la forme histolytica correspond à Entamoeba histolytica, la forme minuta correspondant à Entamoeba dispar, découvert en 1925 par É. Brumpt est une espèce à part.
 Entamoeba histolytica est un organisme anaérobie, qui ne possède pas de mitochondrie pour permettre l'oxydation des composés organiques, mais un organite différent appelé mitosome.
 Entamoeba dispar est une espèce non pathogène très proche morphologiquement de Entamoeba histolytica, et beaucoup plus répandue que cette dernière.
 </t>
@@ -518,7 +530,9 @@
           <t>Réalisation du cycle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>→ kyste à un noyau
 → le noyau se divise pour former 4 noyaux
@@ -557,7 +571,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'amibe dysentérique Entamoeba histolytica est un protozoaire rhizopode parasite spécifique de l'être humain chez qui elle détermine les diverses formes de l'amibiase :
 amibiase infection des porteurs d'amibes sans manifestations cliniques ;
@@ -589,7 +605,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence de ce protozoaire varie considérablement dans les différents groupes de population et est généralement étroitement liée aux conditions socio-économiques. Les taux les plus élevés sont retrouvés dans des endroits dépourvus d'installations sanitaires comme les égouts et l'eau potable.
 </t>
@@ -620,7 +638,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au stade végétatif, l'amibe dysentérique peut se présenter sous deux formes :
 la forme minuta, d'un diamètre moyen de 10 à 15 micromètres, présente un ectoplasme  clair et un endoplasme granuleux contenant des bactéries phagocytées et, latéralement, le noyau caractéristique : arrondi, d'un diamètre de 5 micromètres, il a une couronne périphérique de petites croutelles chromatiniennes et un gros caryosome central ;
@@ -654,7 +674,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amibe dysentérique a une biologie très originale qui aboutit, selon les circonstances, à un dualisme évolutif se traduisant par les deux aspects morphologiques décrits, mais aussi par des biotopes, modes de nutrition et pouvoirs pathogènes très différents.
 L'amibe minuta réalise, aux moindres frais, le cycle parasitaire normal assurant la pérennité et la dispersion de l'espèce. Elle vit à la surface de la muqueuse du gros intestin, surtout dans les zones de stagnation relative du contenu intestinal : cæcum et côlon ascendant, sigmoïde et ampoule rectale. Elle s'y nourrit de bactéries et de levures, et s'y multiplie par division binaire asexuée. Périodiquement, elle s'arrête, s'arrondit et s'enkyste.
@@ -690,7 +712,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amibe dysentérique est la seule qui, en pratique, ait un rôle important en pathologie humaine. Ses actions n'en sont pas moins très variées : affections non apparentes des porteurs sains et colites amibiennes chroniques paucisymptomatiques dues à la forme minuta, ou épisodes dysentériques aigus et redoutables métastases extra-intestinales de la forme histolytica.
 Dans la pratique courante, en zone d'endémie, c'est la dysenterie qui révèle une amibiase.
@@ -722,14 +746,16 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>N'est amibien que celui qui héberge Entamoeba histolytica, dont, seule la découverte, sous l'une de ses trois formes, permet d'affirmer l'amibiase.
-Cette mise en évidence, le plus souvent par un examen parasitologique des selles, devra être demandée à des biologistes confirmés par l'expérience[3].
-L'amibiase intestinale[3] :
+Cette mise en évidence, le plus souvent par un examen parasitologique des selles, devra être demandée à des biologistes confirmés par l'expérience.
+L'amibiase intestinale :
 repose sur l'examen parasitologique des selles (mise en évidence des formes végétatives dans la glaire) et les selles doivent être acheminées rapidement au laboratoire,
 recherche des kystes : en cas de négativité , répéter l'examen trois fois à trois jours d'intervalle car l'émission des kystes n'est pas continue.
-L'amibiase extra-intestinale[3] :
+L'amibiase extra-intestinale :
 imagerie médicale (radiologie, échographie, scanner, IRM),
 ponction d'abcès hépatique : ramène un pus d'aspect chocolat, l'examen direct à la recherche d'une forme végétative est souvent négatif,
 sérologie : ELISA, etc.</t>
@@ -760,7 +786,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Métronidazole (Flagyl), tinidazole (Fasigyne) ou secnidazole (Flagentyl).
 Dans la dysenterie amibienne aigüe, on associera le médicament antiamibien à :
@@ -794,7 +822,9 @@
           <t>Prophylaxie individuelle</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne boire d'eau suspecte que bouillie ou filtrée. Éviter les crudités, les fruits non pelés et les préparations locales effectuées dans des conditions d'hygiène suspectes.
 Sur les autres projets Wikimedia :
